--- a/classification_15classes/HT/Experiments.xlsx
+++ b/classification_15classes/HT/Experiments.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YShimada-MBP16/Documents/Code_Github/DL_for_ImageData_and_Finetuning/classification_15classes/HT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9A666C-A17F-0A47-BAA8-D5486240D217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A246909-6B8B-BE48-89EB-5206B358FBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35920" yWindow="1060" windowWidth="28300" windowHeight="17440" xr2:uid="{DE73F1F3-8CA9-3A4A-8002-8CAE140C6C71}"/>
+    <workbookView xWindow="35840" yWindow="2640" windowWidth="31560" windowHeight="17380" xr2:uid="{DE73F1F3-8CA9-3A4A-8002-8CAE140C6C71}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LeaderBoard" sheetId="1" r:id="rId1"/>
+    <sheet name="Exp_1_6" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="60">
   <si>
     <t>Experiment_Name</t>
     <phoneticPr fontId="1"/>
@@ -79,6 +81,199 @@
   </si>
   <si>
     <t>Runtime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Batch_Size</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Comments</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTデフォルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cable_round1_backbone_resnet50_learning_rate_0.0001</t>
+  </si>
+  <si>
+    <t>cable_round1_backbone_tf_efficientnetv2_b3_learning_rate_0.001</t>
+  </si>
+  <si>
+    <t>cable_round1_backbone_resnet50_learning_rate_0.001</t>
+  </si>
+  <si>
+    <t>cable_round1_backbone_tf_efficientnetv2_b3_learning_rate_0.0001</t>
+  </si>
+  <si>
+    <t>cable_round1_backbone_resnet50_learning_rate_0.0003</t>
+  </si>
+  <si>
+    <t>cable_round1_backbone_tf_efficientnetv2_b3_learning_rate_0.0003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tf_efficientnetv2_b3</t>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1_3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1_4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1_5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1_6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cable_round2_augmentations_strategy_Hard_mix_image_Disabled</t>
+  </si>
+  <si>
+    <t>cable_round2_augmentations_strategy_Soft_mix_image_Disabled</t>
+  </si>
+  <si>
+    <t>cable_round2_augmentations_strategy_Soft_mix_image_Mixup</t>
+  </si>
+  <si>
+    <t>cable_round2_augmentations_strategy_Hard_mix_image_Cutmix</t>
+  </si>
+  <si>
+    <t>cable_round2_augmentations_strategy_Medium_mix_image_Mixup</t>
+  </si>
+  <si>
+    <t>cable_round2_augmentations_strategy_Soft_mix_image_Cutmix</t>
+  </si>
+  <si>
+    <t>cable_round2_augmentations_strategy_Hard_mix_image_Mixup</t>
+  </si>
+  <si>
+    <t>cable_round2_augmentations_strategy_Medium_mix_image_Disabled</t>
+  </si>
+  <si>
+    <t>cable_round2_augmentations_strategy_Medium_mix_image_Cutmix</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID=0にエッポックを増加</t>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">ゾウカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Augmentation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MixImage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hard</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Soft</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cutmix</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mixup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1_6と同じ</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">オナジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2_3</t>
+  </si>
+  <si>
+    <t>2_4</t>
+  </si>
+  <si>
+    <t>2_5</t>
+  </si>
+  <si>
+    <t>2_6</t>
+  </si>
+  <si>
+    <t>2_7</t>
+  </si>
+  <si>
+    <t>2_8</t>
+  </si>
+  <si>
+    <t>2_9</t>
+  </si>
+  <si>
+    <t>BackbornとLRの実験</t>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">ジッケン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ拡張の実験</t>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">ジッケン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ拡張（再実験）とデータサイズUpの実験</t>
+    <rPh sb="6" eb="9">
+      <t xml:space="preserve">サイジッケン </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">ジッケン </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -103,7 +298,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,8 +311,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -125,13 +326,130 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -142,6 +460,60 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -478,84 +850,1096 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8830E46-7B15-3D47-9A55-E558DB18D047}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>9</v>
       </c>
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
+    <row r="2" spans="1:17">
+      <c r="A2" s="5">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
+      <c r="D2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="6">
+        <v>32</v>
+      </c>
+      <c r="F2" s="6">
         <v>224</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
+      <c r="H2" s="6">
         <v>1E-3</v>
       </c>
-      <c r="F2">
+      <c r="I2" s="6">
         <v>5</v>
       </c>
-      <c r="G2">
+      <c r="J2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="6">
         <v>0.90359999999999996</v>
       </c>
-      <c r="H2">
+      <c r="M2" s="6">
         <v>0.93149999999999999</v>
       </c>
-      <c r="I2" s="2">
+      <c r="N2" s="6"/>
+      <c r="O2" s="7">
         <v>6.8287037037037036E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="D11" s="2"/>
+    <row r="3" spans="1:17">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="12">
+        <v>32</v>
+      </c>
+      <c r="F3" s="12">
+        <v>224</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="I3" s="12">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="M3" s="12">
+        <v>0.9798</v>
+      </c>
+      <c r="N3" s="12"/>
+      <c r="O3" s="13">
+        <v>1.4351851851851852E-3</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="11">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12">
+        <v>32</v>
+      </c>
+      <c r="F4" s="12">
+        <v>224</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="12">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I4" s="12">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="12">
+        <v>0.93930000000000002</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0.9395</v>
+      </c>
+      <c r="N4" s="12"/>
+      <c r="O4" s="13">
+        <v>1.4351851851851852E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12">
+        <v>32</v>
+      </c>
+      <c r="F5" s="12">
+        <v>224</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="12">
+        <v>1E-4</v>
+      </c>
+      <c r="I5" s="12">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0.7964</v>
+      </c>
+      <c r="M5" s="12">
+        <v>0.7944</v>
+      </c>
+      <c r="N5" s="12"/>
+      <c r="O5" s="13">
+        <v>1.4467592592592592E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="11">
+        <v>1</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12">
+        <v>32</v>
+      </c>
+      <c r="F6" s="12">
+        <v>224</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="I6" s="12">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0.9607</v>
+      </c>
+      <c r="M6" s="12">
+        <v>0.9798</v>
+      </c>
+      <c r="N6" s="12"/>
+      <c r="O6" s="13">
+        <v>1.8749999999999999E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="11">
+        <v>1</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12">
+        <v>32</v>
+      </c>
+      <c r="F7" s="12">
+        <v>224</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="12">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I7" s="12">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="M7" s="12">
+        <v>0.9758</v>
+      </c>
+      <c r="N7" s="12"/>
+      <c r="O7" s="13">
+        <v>1.8865740740740742E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="11">
+        <v>1</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12">
+        <v>32</v>
+      </c>
+      <c r="F8" s="12">
+        <v>224</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="12">
+        <v>1E-4</v>
+      </c>
+      <c r="I8" s="12">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="12">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="M8" s="12">
+        <v>0.9839</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="13">
+        <v>1.8865740740740742E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="8">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="9">
+        <v>32</v>
+      </c>
+      <c r="F9" s="9">
+        <v>224</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="I9" s="9">
+        <v>15</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0.96789999999999998</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0.9597</v>
+      </c>
+      <c r="N9" s="19"/>
+      <c r="O9" s="10">
+        <v>1.9212962962962964E-3</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="11">
+        <v>2</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12">
+        <v>32</v>
+      </c>
+      <c r="F10" s="12">
+        <v>224</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="12">
+        <v>1E-4</v>
+      </c>
+      <c r="I10" s="12">
+        <v>15</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="12">
+        <v>0.96789999999999998</v>
+      </c>
+      <c r="M10" s="12">
+        <v>0.9758</v>
+      </c>
+      <c r="N10" s="20"/>
+      <c r="O10" s="13">
+        <v>1.9212962962962964E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="11">
+        <v>2</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12">
+        <v>32</v>
+      </c>
+      <c r="F11" s="12">
+        <v>224</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="12">
+        <v>1E-4</v>
+      </c>
+      <c r="I11" s="12">
+        <v>15</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="12">
+        <v>0.95709999999999995</v>
+      </c>
+      <c r="M11" s="12">
+        <v>0.9718</v>
+      </c>
+      <c r="N11" s="20"/>
+      <c r="O11" s="13">
+        <v>1.9212962962962964E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="11">
+        <v>2</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12">
+        <v>32</v>
+      </c>
+      <c r="F12" s="12">
+        <v>224</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="12">
+        <v>1E-4</v>
+      </c>
+      <c r="I12" s="12">
+        <v>15</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0.96430000000000005</v>
+      </c>
+      <c r="M12" s="12">
+        <v>0.9798</v>
+      </c>
+      <c r="N12" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="13">
+        <v>1.8749999999999999E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="11">
+        <v>2</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12">
+        <v>32</v>
+      </c>
+      <c r="F13" s="12">
+        <v>224</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="12">
+        <v>1E-4</v>
+      </c>
+      <c r="I13" s="12">
+        <v>15</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0.95709999999999995</v>
+      </c>
+      <c r="M13" s="12">
+        <v>0.9798</v>
+      </c>
+      <c r="N13" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="13">
+        <v>1.8749999999999999E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="11">
+        <v>2</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12">
+        <v>32</v>
+      </c>
+      <c r="F14" s="12">
+        <v>224</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="12">
+        <v>1E-4</v>
+      </c>
+      <c r="I14" s="12">
+        <v>15</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="12">
+        <v>0.9607</v>
+      </c>
+      <c r="M14" s="12">
+        <v>0.9758</v>
+      </c>
+      <c r="N14" s="20"/>
+      <c r="O14" s="13">
+        <v>1.9560185185185184E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="11">
+        <v>2</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12">
+        <v>32</v>
+      </c>
+      <c r="F15" s="12">
+        <v>224</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="12">
+        <v>1E-4</v>
+      </c>
+      <c r="I15" s="12">
+        <v>15</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="12">
+        <v>0.93569999999999998</v>
+      </c>
+      <c r="M15" s="12">
+        <v>0.9395</v>
+      </c>
+      <c r="N15" s="20"/>
+      <c r="O15" s="13">
+        <v>1.9212962962962964E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="11">
+        <v>2</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12">
+        <v>32</v>
+      </c>
+      <c r="F16" s="12">
+        <v>224</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="12">
+        <v>1E-4</v>
+      </c>
+      <c r="I16" s="12">
+        <v>15</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L16" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="M16" s="12">
+        <v>0.9153</v>
+      </c>
+      <c r="N16" s="20"/>
+      <c r="O16" s="13">
+        <v>1.8865740740740742E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="14">
+        <v>2</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15">
+        <v>32</v>
+      </c>
+      <c r="F17" s="15">
+        <v>224</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="I17" s="15">
+        <v>15</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="15">
+        <v>0.89290000000000003</v>
+      </c>
+      <c r="M17" s="15">
+        <v>0.9113</v>
+      </c>
+      <c r="N17" s="21"/>
+      <c r="O17" s="16">
+        <v>1.9675925925925924E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="Q18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="F19" s="17">
+        <v>320</v>
+      </c>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" t="s">
+        <v>46</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="J22" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="H23" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="H24" s="12">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="H25" s="12">
+        <v>1E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="L3:N8">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B4E2735B-619C-5646-A44C-6F4701BBBE11}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9:L17">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2345762D-6FAD-CB42-93A0-EDADA8F7B40F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M9:M17">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1A443CA2-A6FF-F740-8D4B-2EACB77263CC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B4E2735B-619C-5646-A44C-6F4701BBBE11}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L3:N8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2345762D-6FAD-CB42-93A0-EDADA8F7B40F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFD6007B"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L9:L17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1A443CA2-A6FF-F740-8D4B-2EACB77263CC}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFD6007B"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M9:M17</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CACBAFE-9144-844B-B3B7-C8394721035F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA758A57-4667-FC49-89EB-4B471DE22D2E}">
+  <dimension ref="B3:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="2" width="61.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5">
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>0.9607</v>
+      </c>
+      <c r="D3">
+        <v>0.9758</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.9560185185185184E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>0.93569999999999998</v>
+      </c>
+      <c r="D4">
+        <v>0.9395</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.9212962962962964E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>0.96789999999999998</v>
+      </c>
+      <c r="D5">
+        <v>0.9597</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.9212962962962964E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>0.96789999999999998</v>
+      </c>
+      <c r="D6">
+        <v>0.9758</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.9212962962962964E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>0.89290000000000003</v>
+      </c>
+      <c r="D7">
+        <v>0.9113</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.9675925925925924E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>0.95709999999999995</v>
+      </c>
+      <c r="D8">
+        <v>0.9798</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.8749999999999999E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>0.95709999999999995</v>
+      </c>
+      <c r="D9">
+        <v>0.9718</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.9212962962962964E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>0.9</v>
+      </c>
+      <c r="D10">
+        <v>0.9153</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.8865740740740742E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <v>0.96430000000000005</v>
+      </c>
+      <c r="D11">
+        <v>0.9798</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1.8749999999999999E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="C20" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/classification_15classes/HT/Experiments.xlsx
+++ b/classification_15classes/HT/Experiments.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YShimada-MBP16/Documents/Code_Github/DL_for_ImageData_and_Finetuning/classification_15classes/HT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A246909-6B8B-BE48-89EB-5206B358FBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5DE1D6-35DA-ED4D-A9FC-156DE85CBBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35840" yWindow="2640" windowWidth="31560" windowHeight="17380" xr2:uid="{DE73F1F3-8CA9-3A4A-8002-8CAE140C6C71}"/>
+    <workbookView xWindow="35840" yWindow="1680" windowWidth="35240" windowHeight="18180" xr2:uid="{DE73F1F3-8CA9-3A4A-8002-8CAE140C6C71}"/>
   </bookViews>
   <sheets>
-    <sheet name="LeaderBoard" sheetId="1" r:id="rId1"/>
-    <sheet name="Exp_1_6" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Experiment_Round" sheetId="9" r:id="rId1"/>
+    <sheet name="LeaderBoard" sheetId="1" r:id="rId2"/>
+    <sheet name="Exp_1_6" sheetId="3" r:id="rId3"/>
+    <sheet name="Exp_2_4and4" sheetId="7" r:id="rId4"/>
+    <sheet name="Exp_3_12" sheetId="6" r:id="rId5"/>
+    <sheet name="Exp_4_2and3" sheetId="8" r:id="rId6"/>
+    <sheet name="Exp_5_2" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="110">
   <si>
     <t>Experiment_Name</t>
     <phoneticPr fontId="1"/>
@@ -267,12 +271,259 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>データ拡張（再実験）とデータサイズUpの実験</t>
+    <t>cable_round3A_augmentations_strategy_Soft_learning_rate_0.0003_mix_image_Mixup</t>
+  </si>
+  <si>
+    <t>cable_round3A_augmentations_strategy_Soft_learning_rate_0.0003_mix_image_Disabled</t>
+  </si>
+  <si>
+    <t>cable_round3A_augmentations_strategy_Medium_learning_rate_0.0003_mix_image_Mixup</t>
+  </si>
+  <si>
+    <t>cable_round3A_augmentations_strategy_Soft_learning_rate_0.001_mix_image_Mixup</t>
+  </si>
+  <si>
+    <t>cable_round3A_augmentations_strategy_Medium_learning_rate_0.0001_mix_image_Disabled</t>
+  </si>
+  <si>
+    <t>cable_round3A_augmentations_strategy_Medium_learning_rate_0.0001_mix_image_Mixup</t>
+  </si>
+  <si>
+    <t>cable_round3A_augmentations_strategy_Medium_learning_rate_0.001_mix_image_Mixup</t>
+  </si>
+  <si>
+    <t>cable_round3A_augmentations_strategy_Soft_learning_rate_0.0001_mix_image_Disabled</t>
+  </si>
+  <si>
+    <t>cable_round3A_augmentations_strategy_Medium_learning_rate_0.001_mix_image_Disabled</t>
+  </si>
+  <si>
+    <t>cable_round3A_augmentations_strategy_Soft_learning_rate_0.001_mix_image_Disabled</t>
+  </si>
+  <si>
+    <t>cable_round3A_augmentations_strategy_Medium_learning_rate_0.0003_mix_image_Disabled</t>
+  </si>
+  <si>
+    <t>cable_round3A_augmentations_strategy_Soft_learning_rate_0.0001_mix_image_Mixup</t>
+  </si>
+  <si>
+    <t>データ拡張と画像サイズのスケールアップ</t>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">ガゾウノ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3_3</t>
+  </si>
+  <si>
+    <t>3_4</t>
+  </si>
+  <si>
+    <t>3_5</t>
+  </si>
+  <si>
+    <t>3_6</t>
+  </si>
+  <si>
+    <t>3_7</t>
+  </si>
+  <si>
+    <t>3_8</t>
+  </si>
+  <si>
+    <t>3_9</t>
+  </si>
+  <si>
+    <t>3_10</t>
+  </si>
+  <si>
+    <t>3_11</t>
+  </si>
+  <si>
+    <t>3_12</t>
+  </si>
+  <si>
+    <t>画像サイズ以外はID=2_1と同じ</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ガゾウサイズ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">イガイハ </t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t xml:space="preserve">オナジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像サイズ以外はID=2_2と同じ</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ガゾウサイズ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">イガイハ </t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t xml:space="preserve">オナジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像サイズ以外はID=2_4と同じ</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ガゾウサイズ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">イガイハ </t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t xml:space="preserve">オナジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像サイズ以外はID=2_5と同じ</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ガゾウサイズ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">イガイハ </t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t xml:space="preserve">オナジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデルのスケールアップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cable_round4_learning_rate_0.001</t>
+  </si>
+  <si>
+    <t>cable_round4_learning_rate_0.0003</t>
+  </si>
+  <si>
+    <t>cable_round4_learning_rate_0.0001</t>
+  </si>
+  <si>
+    <t>efficientnetv2_rw_m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4_3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID=4_2の再実行（同設定での精度再確認）</t>
+    <rPh sb="7" eb="10">
+      <t xml:space="preserve">サイジッコウ </t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t xml:space="preserve">オナジ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">セイド </t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t xml:space="preserve">サイカクニン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cable_round4_learning_rate_0.0003.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cable_round4_learning_rate_0.0001.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID=4_3の再実行（同設定での精度再確認）</t>
+    <rPh sb="7" eb="10">
+      <t xml:space="preserve">サイジッコウ </t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t xml:space="preserve">オナジ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">セイド </t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t xml:space="preserve">サイカクニン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Experiment Round</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Theme</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Findings</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベースライン。HTデフォルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ拡張（再確認）と画像サイズのスケールアップ</t>
     <rPh sb="6" eb="9">
-      <t xml:space="preserve">サイジッケン </t>
+      <t xml:space="preserve">サイカクニン </t>
     </rPh>
-    <rPh sb="20" eb="22">
-      <t xml:space="preserve">ジッケン </t>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">ガゾウノ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Backborn（スケールアップ前）と学習率</t>
+    <rPh sb="19" eb="22">
+      <t xml:space="preserve">ガクシュウリツノ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ拡張</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乱数によるブレの確認</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ランスウニヨル </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">カクニン </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -281,7 +532,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -294,6 +545,15 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -449,20 +709,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -486,9 +737,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -501,19 +749,55 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -531,6 +815,339 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0BE726F-4235-DCA6-6632-00C8411318A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="254000"/>
+          <a:ext cx="6680200" cy="6007100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F63804B1-A20E-3EBE-5E07-8D21DCA81ED6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="254000"/>
+          <a:ext cx="6807200" cy="6070600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CC48864-1F90-D74E-FB88-C3AF3F8D1451}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8026400" y="254000"/>
+          <a:ext cx="6819900" cy="6108700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99631E3-0487-63E0-9C63-734CF6448A86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="254000"/>
+          <a:ext cx="6807200" cy="6032500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A78A3620-A2A5-E621-1DEC-80ECE4A53368}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="254000"/>
+          <a:ext cx="6769100" cy="6057900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45FE3E35-6394-3AD6-7AEE-A68BFDCD4ACB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7823200" y="266700"/>
+          <a:ext cx="6781800" cy="6057900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FA90A0D-5AD8-2491-C6B4-4F8857366D23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="254000"/>
+          <a:ext cx="6756400" cy="6019800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -849,22 +1466,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A1254C-741F-C342-8B93-516326E2EE28}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8830E46-7B15-3D47-9A55-E558DB18D047}">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="3" max="3" width="76.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -872,120 +1571,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" t="s">
+      <c r="A1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="O1" t="s">
+      <c r="N1" s="25"/>
+      <c r="O1" s="28" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="5">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="3">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="3">
         <v>32</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="3">
         <v>224</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="3">
         <v>1E-3</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="3">
         <v>5</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="3">
         <v>0.90359999999999996</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="3">
         <v>0.93149999999999999</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="7">
+      <c r="N2" s="3"/>
+      <c r="O2" s="4">
         <v>6.8287037037037036E-4</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="11">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3">
         <v>32</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3">
         <v>224</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3">
         <v>1E-3</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3">
         <v>15</v>
       </c>
       <c r="J3" t="s">
@@ -994,14 +1694,13 @@
       <c r="K3" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3">
         <v>0.95</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3">
         <v>0.9798</v>
       </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13">
+      <c r="O3" s="9">
         <v>1.4351851851851852E-3</v>
       </c>
       <c r="Q3" t="s">
@@ -1009,29 +1708,28 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="11">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12">
+      <c r="E4">
         <v>32</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4">
         <v>224</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4">
         <v>15</v>
       </c>
       <c r="J4" t="s">
@@ -1040,41 +1738,39 @@
       <c r="K4" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4">
         <v>0.93930000000000002</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4">
         <v>0.9395</v>
       </c>
-      <c r="N4" s="12"/>
-      <c r="O4" s="13">
+      <c r="O4" s="9">
         <v>1.4351851851851852E-3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="11">
+      <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12">
+      <c r="E5">
         <v>32</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5">
         <v>224</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5">
         <v>1E-4</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5">
         <v>15</v>
       </c>
       <c r="J5" t="s">
@@ -1083,41 +1779,39 @@
       <c r="K5" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5">
         <v>0.7964</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5">
         <v>0.7944</v>
       </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="13">
+      <c r="O5" s="9">
         <v>1.4467592592592592E-3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="11">
+      <c r="A6" s="8">
         <v>1</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12">
+      <c r="E6">
         <v>32</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6">
         <v>224</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6">
         <v>1E-3</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6">
         <v>15</v>
       </c>
       <c r="J6" t="s">
@@ -1126,41 +1820,39 @@
       <c r="K6" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6">
         <v>0.9607</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6">
         <v>0.9798</v>
       </c>
-      <c r="N6" s="12"/>
-      <c r="O6" s="13">
+      <c r="O6" s="9">
         <v>1.8749999999999999E-3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="11">
+      <c r="A7" s="8">
         <v>1</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12">
+      <c r="E7">
         <v>32</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7">
         <v>224</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7">
         <v>15</v>
       </c>
       <c r="J7" t="s">
@@ -1169,41 +1861,39 @@
       <c r="K7" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7">
         <v>0.98570000000000002</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7">
         <v>0.9758</v>
       </c>
-      <c r="N7" s="12"/>
-      <c r="O7" s="13">
+      <c r="O7" s="9">
         <v>1.8865740740740742E-3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="11">
+      <c r="A8" s="8">
         <v>1</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12">
+      <c r="E8">
         <v>32</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8">
         <v>224</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8">
         <v>1E-4</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8">
         <v>15</v>
       </c>
       <c r="J8" t="s">
@@ -1212,61 +1902,61 @@
       <c r="K8" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8">
         <v>0.97499999999999998</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8">
         <v>0.9839</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="N8" t="s">
         <v>21</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="9">
         <v>1.8865740740740742E-3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="8">
+      <c r="A9" s="5">
         <v>2</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="6">
         <v>32</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="6">
         <v>224</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="6">
         <v>1E-4</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="6">
         <v>15</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="6">
         <v>0.96789999999999998</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="6">
         <v>0.9597</v>
       </c>
-      <c r="N9" s="19"/>
-      <c r="O9" s="10">
+      <c r="N9" s="14"/>
+      <c r="O9" s="7">
         <v>1.9212962962962964E-3</v>
       </c>
       <c r="Q9" t="s">
@@ -1274,424 +1964,1115 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="11">
+      <c r="A10" s="8">
         <v>2</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12">
+      <c r="E10">
         <v>32</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10">
         <v>224</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10">
         <v>1E-4</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10">
         <v>15</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" t="s">
         <v>45</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10">
         <v>0.96789999999999998</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10">
         <v>0.9758</v>
       </c>
-      <c r="N10" s="20"/>
-      <c r="O10" s="13">
+      <c r="N10" s="1"/>
+      <c r="O10" s="9">
         <v>1.9212962962962964E-3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="11">
+      <c r="A11" s="8">
         <v>2</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12">
+      <c r="E11">
         <v>32</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11">
         <v>224</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11">
         <v>1E-4</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11">
         <v>15</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" t="s">
         <v>44</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11">
         <v>0.95709999999999995</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11">
         <v>0.9718</v>
       </c>
-      <c r="N11" s="20"/>
-      <c r="O11" s="13">
+      <c r="N11" s="1"/>
+      <c r="O11" s="9">
         <v>1.9212962962962964E-3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="11">
+      <c r="A12" s="8">
         <v>2</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12">
+      <c r="E12">
         <v>32</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12">
         <v>224</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12">
         <v>1E-4</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12">
         <v>15</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" t="s">
         <v>41</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" t="s">
         <v>46</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12">
         <v>0.96430000000000005</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12">
         <v>0.9798</v>
       </c>
-      <c r="N12" s="20" t="s">
+      <c r="N12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="9">
         <v>1.8749999999999999E-3</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="11">
+      <c r="A13" s="8">
         <v>2</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12">
+      <c r="E13">
         <v>32</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13">
         <v>224</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13">
         <v>1E-4</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13">
         <v>15</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" t="s">
         <v>41</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" t="s">
         <v>45</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13">
         <v>0.95709999999999995</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13">
         <v>0.9798</v>
       </c>
-      <c r="N13" s="20" t="s">
+      <c r="N13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="9">
         <v>1.8749999999999999E-3</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="11">
+      <c r="A14" s="8">
         <v>2</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12">
+      <c r="E14">
         <v>32</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14">
         <v>224</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14">
         <v>1E-4</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14">
         <v>15</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" t="s">
         <v>44</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14">
         <v>0.9607</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14">
         <v>0.9758</v>
       </c>
-      <c r="N14" s="20"/>
-      <c r="O14" s="13">
+      <c r="N14" s="1"/>
+      <c r="O14" s="9">
         <v>1.9560185185185184E-3</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="11">
+      <c r="A15" s="8">
         <v>2</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12">
+      <c r="E15">
         <v>32</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15">
         <v>224</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15">
         <v>1E-4</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15">
         <v>15</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" t="s">
         <v>42</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15">
         <v>0.93569999999999998</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15">
         <v>0.9395</v>
       </c>
-      <c r="N15" s="20"/>
-      <c r="O15" s="13">
+      <c r="N15" s="1"/>
+      <c r="O15" s="9">
         <v>1.9212962962962964E-3</v>
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="11">
+      <c r="A16" s="8">
         <v>2</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12">
+      <c r="E16">
         <v>32</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16">
         <v>224</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16">
         <v>1E-4</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16">
         <v>15</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" t="s">
         <v>42</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" t="s">
         <v>45</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16">
         <v>0.9</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16">
         <v>0.9153</v>
       </c>
-      <c r="N16" s="20"/>
-      <c r="O16" s="13">
+      <c r="N16" s="1"/>
+      <c r="O16" s="9">
         <v>1.8865740740740742E-3</v>
       </c>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="14">
+      <c r="A17" s="10">
         <v>2</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15">
+      <c r="D17" s="11"/>
+      <c r="E17" s="11">
         <v>32</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="11">
         <v>224</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="11">
         <v>1E-4</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="11">
         <v>15</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="K17" s="15" t="s">
+      <c r="K17" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="11">
         <v>0.89290000000000003</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M17" s="11">
         <v>0.9113</v>
       </c>
-      <c r="N17" s="21"/>
-      <c r="O17" s="16">
+      <c r="N17" s="15"/>
+      <c r="O17" s="12">
         <v>1.9675925925925924E-3</v>
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="A18" s="18">
+        <v>3</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6">
+        <v>32</v>
+      </c>
+      <c r="F18" s="6">
+        <v>320</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="I18" s="6">
+        <v>15</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="M18" s="6">
+        <v>0.9637</v>
+      </c>
+      <c r="N18" s="14"/>
+      <c r="O18" s="7">
+        <v>2.0254629629629629E-3</v>
+      </c>
       <c r="Q18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="16">
+        <v>3</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20">
+        <v>32</v>
+      </c>
+      <c r="F19" s="20">
+        <v>320</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="20">
+        <v>1E-3</v>
+      </c>
+      <c r="I19" s="20">
+        <v>15</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" s="20">
+        <v>0.96430000000000005</v>
+      </c>
+      <c r="M19" s="20">
+        <v>0.9758</v>
+      </c>
+      <c r="N19" s="21"/>
+      <c r="O19" s="9">
+        <v>2.0833333333333333E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="16">
+        <v>3</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20">
+        <v>32</v>
+      </c>
+      <c r="F20" s="20">
+        <v>320</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="20">
+        <v>1E-3</v>
+      </c>
+      <c r="I20" s="20">
+        <v>15</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" s="20">
+        <v>0.96430000000000005</v>
+      </c>
+      <c r="M20" s="20">
+        <v>0.9839</v>
+      </c>
+      <c r="N20" s="21"/>
+      <c r="O20" s="9">
+        <v>2.0717592592592593E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="16">
+        <v>3</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20">
+        <v>32</v>
+      </c>
+      <c r="F21" s="20">
+        <v>320</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="20">
+        <v>1E-3</v>
+      </c>
+      <c r="I21" s="20">
+        <v>15</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L21" s="20">
+        <v>0.96430000000000005</v>
+      </c>
+      <c r="M21" s="20">
+        <v>0.9798</v>
+      </c>
+      <c r="N21" s="21"/>
+      <c r="O21" s="9">
+        <v>2.0717592592592593E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="16">
+        <v>3</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20">
+        <v>32</v>
+      </c>
+      <c r="F22" s="20">
+        <v>320</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="20">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I22" s="20">
+        <v>15</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="L22" s="20">
+        <v>0.96430000000000005</v>
+      </c>
+      <c r="M22" s="20">
+        <v>0.9798</v>
+      </c>
+      <c r="N22" s="21"/>
+      <c r="O22" s="9">
+        <v>2.0717592592592593E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="16">
+        <v>3</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="F19" s="17">
+      <c r="D23" s="20"/>
+      <c r="E23" s="20">
+        <v>32</v>
+      </c>
+      <c r="F23" s="20">
         <v>320</v>
       </c>
-      <c r="J19" t="s">
+      <c r="G23" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="20">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I23" s="20">
+        <v>15</v>
+      </c>
+      <c r="J23" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K23" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="20">
+        <v>0.96789999999999998</v>
+      </c>
+      <c r="M23" s="20">
+        <v>0.9839</v>
+      </c>
+      <c r="N23" s="21"/>
+      <c r="O23" s="9">
+        <v>2.1064814814814813E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="16">
+        <v>3</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20">
+        <v>32</v>
+      </c>
+      <c r="F24" s="20">
+        <v>320</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="20">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I24" s="20">
+        <v>15</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24" s="20" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="J20" t="s">
+      <c r="L24" s="20">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="M24" s="20">
+        <v>0.9758</v>
+      </c>
+      <c r="N24" s="21"/>
+      <c r="O24" s="9">
+        <v>2.0370370370370369E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="16">
+        <v>3</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20">
+        <v>32</v>
+      </c>
+      <c r="F25" s="20">
+        <v>320</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="20">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I25" s="20">
+        <v>15</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L25" s="20">
+        <v>0.97860000000000003</v>
+      </c>
+      <c r="M25" s="20">
+        <v>0.9839</v>
+      </c>
+      <c r="N25" s="21"/>
+      <c r="O25" s="9">
+        <v>2.0717592592592593E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="16">
+        <v>3</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="20">
+        <v>32</v>
+      </c>
+      <c r="F26" s="20">
+        <v>320</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="20">
+        <v>1E-4</v>
+      </c>
+      <c r="I26" s="20">
+        <v>15</v>
+      </c>
+      <c r="J26" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K26" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" s="20">
+        <v>0.97140000000000004</v>
+      </c>
+      <c r="M26" s="20">
+        <v>0.9839</v>
+      </c>
+      <c r="N26" s="21"/>
+      <c r="O26" s="9">
+        <v>2.0717592592592593E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="16">
+        <v>3</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="20">
+        <v>32</v>
+      </c>
+      <c r="F27" s="20">
+        <v>320</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="20">
+        <v>1E-4</v>
+      </c>
+      <c r="I27" s="20">
+        <v>15</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27" s="20" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" t="s">
+      <c r="L27" s="20">
+        <v>0.9536</v>
+      </c>
+      <c r="M27" s="20">
+        <v>0.9839</v>
+      </c>
+      <c r="N27" s="21"/>
+      <c r="O27" s="9">
+        <v>2.0601851851851853E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="16">
+        <v>3</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="20">
+        <v>32</v>
+      </c>
+      <c r="F28" s="20">
+        <v>320</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="20">
+        <v>1E-4</v>
+      </c>
+      <c r="I28" s="20">
+        <v>15</v>
+      </c>
+      <c r="J28" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K28" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" t="s">
+      <c r="L28" s="20">
+        <v>0.96430000000000005</v>
+      </c>
+      <c r="M28" s="20">
+        <v>0.9758</v>
+      </c>
+      <c r="N28" s="21"/>
+      <c r="O28" s="9">
+        <v>2.0486111111111113E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="22">
+        <v>3</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="11">
+        <v>32</v>
+      </c>
+      <c r="F29" s="11">
+        <v>320</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="11">
+        <v>1E-4</v>
+      </c>
+      <c r="I29" s="11">
+        <v>15</v>
+      </c>
+      <c r="J29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K29" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="H23" s="12">
+      <c r="L29" s="11">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="M29" s="11">
+        <v>0.9879</v>
+      </c>
+      <c r="N29" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="O29" s="12">
+        <v>2.0949074074074073E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="18">
+        <v>4</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6">
+        <v>32</v>
+      </c>
+      <c r="F30" s="6">
+        <v>320</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H30" s="6">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="H24" s="12">
+      <c r="I30" s="6"/>
+      <c r="J30" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L30" s="6">
+        <v>0.97860000000000003</v>
+      </c>
+      <c r="M30" s="6">
+        <v>0.9879</v>
+      </c>
+      <c r="N30" s="14"/>
+      <c r="O30" s="7">
+        <v>2.9282407407407408E-3</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="16">
+        <v>4</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20">
+        <v>32</v>
+      </c>
+      <c r="F31" s="20">
+        <v>320</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="H31" s="20">
         <v>2.9999999999999997E-4</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="H25" s="12">
+      <c r="I31" s="20"/>
+      <c r="J31" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" s="20">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="M31" s="20">
+        <v>0.9919</v>
+      </c>
+      <c r="N31" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="O31" s="9">
+        <v>2.8587962962962963E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="22">
+        <v>4</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11">
+        <v>32</v>
+      </c>
+      <c r="F32" s="11">
+        <v>320</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H32" s="11">
         <v>1E-4</v>
       </c>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L32" s="11">
+        <v>0.98209999999999997</v>
+      </c>
+      <c r="M32" s="11">
+        <v>0.9919</v>
+      </c>
+      <c r="N32" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="O32" s="12">
+        <v>2.8472222222222223E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="18">
+        <v>5</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="6">
+        <v>32</v>
+      </c>
+      <c r="F33" s="6">
+        <v>320</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H33" s="6">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L33" s="6">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="M33" s="6">
+        <v>0.9879</v>
+      </c>
+      <c r="N33" s="6"/>
+      <c r="O33" s="7">
+        <v>2.8472222222222223E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="22">
+        <v>5</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="11">
+        <v>32</v>
+      </c>
+      <c r="F34" s="11">
+        <v>320</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H34" s="11">
+        <v>1E-4</v>
+      </c>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L34" s="11">
+        <v>0.97860000000000003</v>
+      </c>
+      <c r="M34" s="11">
+        <v>0.9919</v>
+      </c>
+      <c r="N34" s="11"/>
+      <c r="O34" s="12">
+        <v>2.8356481481481483E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="L39" s="1"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="L42" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="L9:L17">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2345762D-6FAD-CB42-93A0-EDADA8F7B40F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L3:N8">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1704,22 +3085,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9:L17">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFD6007B"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2345762D-6FAD-CB42-93A0-EDADA8F7B40F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="M9:M17">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1732,10 +3099,79 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L18:L29">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5F1DA120-6D45-2543-AB67-4785E5DF6599}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M29">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{90244F26-22BF-7641-8696-6F27CCDE58B8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L30:L32">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{081F291F-F257-4C48-A0A7-B0CE33201C9B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M32">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AF2AA92A-FAA9-1C41-823C-B1759A773B55}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2345762D-6FAD-CB42-93A0-EDADA8F7B40F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFD6007B"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L9:L17</xm:sqref>
+        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B4E2735B-619C-5646-A44C-6F4701BBBE11}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
@@ -1750,19 +3186,6 @@
           <xm:sqref>L3:N8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2345762D-6FAD-CB42-93A0-EDADA8F7B40F}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFD6007B"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>L9:L17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1A443CA2-A6FF-F740-8D4B-2EACB77263CC}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -1775,174 +3198,140 @@
           </x14:cfRule>
           <xm:sqref>M9:M17</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5F1DA120-6D45-2543-AB67-4785E5DF6599}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L18:L29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{90244F26-22BF-7641-8696-6F27CCDE58B8}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M18:M29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{081F291F-F257-4C48-A0A7-B0CE33201C9B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFD6007B"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L30:L32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AF2AA92A-FAA9-1C41-823C-B1759A773B55}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFD6007B"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M30:M32</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CACBAFE-9144-844B-B3B7-C8394721035F}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA758A57-4667-FC49-89EB-4B471DE22D2E}">
-  <dimension ref="B3:E20"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CFBD30-D524-274B-A1B9-5395BF8CB222}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E11"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <cols>
-    <col min="2" max="2" width="61.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:5">
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3">
-        <v>0.9607</v>
-      </c>
-      <c r="D3">
-        <v>0.9758</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1.9560185185185184E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4">
-        <v>0.93569999999999998</v>
-      </c>
-      <c r="D4">
-        <v>0.9395</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1.9212962962962964E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5">
-        <v>0.96789999999999998</v>
-      </c>
-      <c r="D5">
-        <v>0.9597</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1.9212962962962964E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6">
-        <v>0.96789999999999998</v>
-      </c>
-      <c r="D6">
-        <v>0.9758</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1.9212962962962964E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7">
-        <v>0.89290000000000003</v>
-      </c>
-      <c r="D7">
-        <v>0.9113</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1.9675925925925924E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8">
-        <v>0.95709999999999995</v>
-      </c>
-      <c r="D8">
-        <v>0.9798</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1.8749999999999999E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9">
-        <v>0.95709999999999995</v>
-      </c>
-      <c r="D9">
-        <v>0.9718</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1.9212962962962964E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10">
-        <v>0.9</v>
-      </c>
-      <c r="D10">
-        <v>0.9153</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1.8865740740740742E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11">
-        <v>0.96430000000000005</v>
-      </c>
-      <c r="D11">
-        <v>0.9798</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1.8749999999999999E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="C20" s="2"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357625DD-179F-884A-B7B0-19DAB3C6F900}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E37916-503C-8440-9AAD-14EC045A1F22}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4C9BD1-6E19-FD4E-821F-DA900534C8C7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/classification_15classes/HT/Experiments.xlsx
+++ b/classification_15classes/HT/Experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YShimada-MBP16/Documents/Code_Github/DL_for_ImageData_and_Finetuning/classification_15classes/HT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5DE1D6-35DA-ED4D-A9FC-156DE85CBBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA385F50-D178-5048-8833-4ACB5FF8263F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35840" yWindow="1680" windowWidth="35240" windowHeight="18180" xr2:uid="{DE73F1F3-8CA9-3A4A-8002-8CAE140C6C71}"/>
+    <workbookView xWindow="38480" yWindow="1740" windowWidth="35340" windowHeight="17180" xr2:uid="{DE73F1F3-8CA9-3A4A-8002-8CAE140C6C71}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment_Round" sheetId="9" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="111">
   <si>
     <t>Experiment_Name</t>
     <phoneticPr fontId="1"/>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>cable_round1_backbone_resnet50_learning_rate_0.001</t>
-  </si>
-  <si>
-    <t>cable_round1_backbone_tf_efficientnetv2_b3_learning_rate_0.0001</t>
   </si>
   <si>
     <t>cable_round1_backbone_resnet50_learning_rate_0.0003</t>
@@ -257,20 +254,6 @@
     <t>2_9</t>
   </si>
   <si>
-    <t>BackbornとLRの実験</t>
-    <rPh sb="12" eb="14">
-      <t xml:space="preserve">ジッケン </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ拡張の実験</t>
-    <rPh sb="6" eb="8">
-      <t xml:space="preserve">ジッケン </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>cable_round3A_augmentations_strategy_Soft_learning_rate_0.0003_mix_image_Mixup</t>
   </si>
   <si>
@@ -305,13 +288,6 @@
   </si>
   <si>
     <t>cable_round3A_augmentations_strategy_Soft_learning_rate_0.0001_mix_image_Mixup</t>
-  </si>
-  <si>
-    <t>データ拡張と画像サイズのスケールアップ</t>
-    <rPh sb="6" eb="8">
-      <t xml:space="preserve">ガゾウノ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>3_1</t>
@@ -524,6 +500,71 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t xml:space="preserve">カクニン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cable_round1_backbone_tf_efficientnetv2_b3_learning_rate_0.0001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tf_efficientnetv2_b3 &amp; learning_rate=0.0001 でデータ拡張の実験をすることに決定</t>
+    <rPh sb="59" eb="61">
+      <t xml:space="preserve">ケッテイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Augmentation=HardとMixImage=CutMixは精度が下がるように見える。そのほかの組み合わせ（Augmentation=Soft or Medium、MixImage=None, MixImage）はやや曖昧</t>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">セイドガ </t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t xml:space="preserve">サガルヨウニ </t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t xml:space="preserve">ミエル </t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t xml:space="preserve">クミアワセハ </t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t xml:space="preserve">アイマイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像サイズのスケールアップは全体的に有効。Augmentation=MediumとMixImageMixupの精度が高く見える</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ガゾウサイズノ </t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t xml:space="preserve">ゼンタイテキニ </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">ユウコウ </t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t xml:space="preserve">セイドガ </t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t xml:space="preserve">タカク </t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t xml:space="preserve">ミエル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3の設定を元にモデルサイズのスケールアップは効果的</t>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">セッテイ </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">モトニ </t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t xml:space="preserve">コウカテキ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -709,7 +750,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -758,30 +799,6 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -797,7 +814,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1470,74 +1496,88 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="94.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="22"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="42">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C5" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>109</v>
-      </c>
+      <c r="C7" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1547,11 +1587,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8830E46-7B15-3D47-9A55-E558DB18D047}">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q30" sqref="Q30"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1570,52 +1610,52 @@
     <col min="14" max="14" width="2.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="28" t="s">
+      <c r="N1" s="17"/>
+      <c r="O1" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:15">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1644,10 +1684,10 @@
         <v>5</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L2" s="3">
         <v>0.90359999999999996</v>
@@ -1660,18 +1700,18 @@
         <v>6.8287037037037036E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:15">
       <c r="A3" s="8">
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>32</v>
@@ -1689,10 +1729,10 @@
         <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L3">
         <v>0.95</v>
@@ -1703,19 +1743,16 @@
       <c r="O3" s="9">
         <v>1.4351851851851852E-3</v>
       </c>
-      <c r="Q3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="8">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>32</v>
@@ -1733,10 +1770,10 @@
         <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L4">
         <v>0.93930000000000002</v>
@@ -1748,12 +1785,12 @@
         <v>1.4351851851851852E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:15">
       <c r="A5" s="8">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -1774,10 +1811,10 @@
         <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L5">
         <v>0.7964</v>
@@ -1789,12 +1826,12 @@
         <v>1.4467592592592592E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:15">
       <c r="A6" s="8">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -1806,7 +1843,7 @@
         <v>224</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>1E-3</v>
@@ -1815,10 +1852,10 @@
         <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L6">
         <v>0.9607</v>
@@ -1830,15 +1867,15 @@
         <v>1.8749999999999999E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:15">
       <c r="A7" s="8">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>32</v>
@@ -1847,7 +1884,7 @@
         <v>224</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H7">
         <v>2.9999999999999997E-4</v>
@@ -1856,10 +1893,10 @@
         <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L7">
         <v>0.98570000000000002</v>
@@ -1871,15 +1908,15 @@
         <v>1.8865740740740742E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:15">
       <c r="A8" s="8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="E8">
         <v>32</v>
@@ -1888,7 +1925,7 @@
         <v>224</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8">
         <v>1E-4</v>
@@ -1897,10 +1934,10 @@
         <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L8">
         <v>0.97499999999999998</v>
@@ -1909,24 +1946,24 @@
         <v>0.9839</v>
       </c>
       <c r="N8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O8" s="9">
         <v>1.8865740740740742E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:15">
       <c r="A9" s="5">
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="6">
         <v>32</v>
@@ -1935,7 +1972,7 @@
         <v>224</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" s="6">
         <v>1E-4</v>
@@ -1944,10 +1981,10 @@
         <v>15</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L9" s="6">
         <v>0.96789999999999998</v>
@@ -1959,19 +1996,16 @@
       <c r="O9" s="7">
         <v>1.9212962962962964E-3</v>
       </c>
-      <c r="Q9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="8">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>32</v>
@@ -1980,7 +2014,7 @@
         <v>224</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H10">
         <v>1E-4</v>
@@ -1989,10 +2023,10 @@
         <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L10">
         <v>0.96789999999999998</v>
@@ -2005,15 +2039,15 @@
         <v>1.9212962962962964E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:15">
       <c r="A11" s="8">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>32</v>
@@ -2022,7 +2056,7 @@
         <v>224</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H11">
         <v>1E-4</v>
@@ -2031,10 +2065,10 @@
         <v>15</v>
       </c>
       <c r="J11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" t="s">
         <v>43</v>
-      </c>
-      <c r="K11" t="s">
-        <v>44</v>
       </c>
       <c r="L11">
         <v>0.95709999999999995</v>
@@ -2047,15 +2081,15 @@
         <v>1.9212962962962964E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:15">
       <c r="A12" s="8">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12">
         <v>32</v>
@@ -2064,7 +2098,7 @@
         <v>224</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H12">
         <v>1E-4</v>
@@ -2073,10 +2107,10 @@
         <v>15</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L12">
         <v>0.96430000000000005</v>
@@ -2085,21 +2119,21 @@
         <v>0.9798</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O12" s="9">
         <v>1.8749999999999999E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:15">
       <c r="A13" s="8">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>32</v>
@@ -2108,7 +2142,7 @@
         <v>224</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H13">
         <v>1E-4</v>
@@ -2117,10 +2151,10 @@
         <v>15</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L13">
         <v>0.95709999999999995</v>
@@ -2129,21 +2163,21 @@
         <v>0.9798</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O13" s="9">
         <v>1.8749999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:15">
       <c r="A14" s="8">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14">
         <v>32</v>
@@ -2152,7 +2186,7 @@
         <v>224</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H14">
         <v>1E-4</v>
@@ -2161,10 +2195,10 @@
         <v>15</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L14">
         <v>0.9607</v>
@@ -2177,15 +2211,15 @@
         <v>1.9560185185185184E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:15">
       <c r="A15" s="8">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15">
         <v>32</v>
@@ -2194,7 +2228,7 @@
         <v>224</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H15">
         <v>1E-4</v>
@@ -2203,10 +2237,10 @@
         <v>15</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L15">
         <v>0.93569999999999998</v>
@@ -2219,15 +2253,15 @@
         <v>1.9212962962962964E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:15">
       <c r="A16" s="8">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16">
         <v>32</v>
@@ -2236,7 +2270,7 @@
         <v>224</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H16">
         <v>1E-4</v>
@@ -2245,10 +2279,10 @@
         <v>15</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L16">
         <v>0.9</v>
@@ -2261,15 +2295,15 @@
         <v>1.8865740740740742E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:15">
       <c r="A17" s="10">
         <v>2</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
@@ -2279,7 +2313,7 @@
         <v>224</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H17" s="11">
         <v>1E-4</v>
@@ -2288,10 +2322,10 @@
         <v>15</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L17" s="11">
         <v>0.89290000000000003</v>
@@ -2304,15 +2338,15 @@
         <v>1.9675925925925924E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="18">
+    <row r="18" spans="1:15">
+      <c r="A18" s="5">
         <v>3</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>72</v>
+      <c r="B18" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6">
@@ -2322,7 +2356,7 @@
         <v>320</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H18" s="6">
         <v>1E-3</v>
@@ -2331,10 +2365,10 @@
         <v>15</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L18" s="6">
         <v>0.97499999999999998</v>
@@ -2346,458 +2380,448 @@
       <c r="O18" s="7">
         <v>2.0254629629629629E-3</v>
       </c>
-      <c r="Q18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="16">
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="8">
         <v>3</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20">
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19">
         <v>32</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19">
         <v>320</v>
       </c>
-      <c r="G19" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="20">
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19">
         <v>1E-3</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I19">
         <v>15</v>
       </c>
-      <c r="J19" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L19" s="20">
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19">
         <v>0.96430000000000005</v>
       </c>
-      <c r="M19" s="20">
+      <c r="M19">
         <v>0.9758</v>
       </c>
-      <c r="N19" s="21"/>
+      <c r="N19" s="1"/>
       <c r="O19" s="9">
         <v>2.0833333333333333E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="16">
+    <row r="20" spans="1:15">
+      <c r="A20" s="8">
         <v>3</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20">
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20">
         <v>32</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20">
         <v>320</v>
       </c>
-      <c r="G20" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="20">
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20">
         <v>1E-3</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20">
         <v>15</v>
       </c>
-      <c r="J20" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="L20" s="20">
+      <c r="J20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20">
         <v>0.96430000000000005</v>
       </c>
-      <c r="M20" s="20">
+      <c r="M20">
         <v>0.9839</v>
       </c>
-      <c r="N20" s="21"/>
+      <c r="N20" s="1"/>
       <c r="O20" s="9">
         <v>2.0717592592592593E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="16">
+    <row r="21" spans="1:15">
+      <c r="A21" s="8">
         <v>3</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20">
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21">
         <v>32</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21">
         <v>320</v>
       </c>
-      <c r="G21" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="20">
+      <c r="G21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21">
         <v>1E-3</v>
       </c>
-      <c r="I21" s="20">
+      <c r="I21">
         <v>15</v>
       </c>
-      <c r="J21" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L21" s="20">
+      <c r="J21" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21">
         <v>0.96430000000000005</v>
       </c>
-      <c r="M21" s="20">
+      <c r="M21">
         <v>0.9798</v>
       </c>
-      <c r="N21" s="21"/>
+      <c r="N21" s="1"/>
       <c r="O21" s="9">
         <v>2.0717592592592593E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="16">
+    <row r="22" spans="1:15">
+      <c r="A22" s="8">
         <v>3</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20">
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22">
         <v>32</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22">
         <v>320</v>
       </c>
-      <c r="G22" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="20">
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="I22" s="20">
+      <c r="I22">
         <v>15</v>
       </c>
-      <c r="J22" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="K22" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="L22" s="20">
+      <c r="J22" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" t="s">
+        <v>45</v>
+      </c>
+      <c r="L22">
         <v>0.96430000000000005</v>
       </c>
-      <c r="M22" s="20">
+      <c r="M22">
         <v>0.9798</v>
       </c>
-      <c r="N22" s="21"/>
+      <c r="N22" s="1"/>
       <c r="O22" s="9">
         <v>2.0717592592592593E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="16">
+    <row r="23" spans="1:15">
+      <c r="A23" s="8">
         <v>3</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20">
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23">
         <v>32</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23">
         <v>320</v>
       </c>
-      <c r="G23" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="20">
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="I23" s="20">
+      <c r="I23">
         <v>15</v>
       </c>
-      <c r="J23" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="K23" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L23" s="20">
+      <c r="J23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" t="s">
+        <v>44</v>
+      </c>
+      <c r="L23">
         <v>0.96789999999999998</v>
       </c>
-      <c r="M23" s="20">
+      <c r="M23">
         <v>0.9839</v>
       </c>
-      <c r="N23" s="21"/>
+      <c r="N23" s="1"/>
       <c r="O23" s="9">
         <v>2.1064814814814813E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="16">
+    <row r="24" spans="1:15">
+      <c r="A24" s="8">
         <v>3</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20">
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24">
         <v>32</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24">
         <v>320</v>
       </c>
-      <c r="G24" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="20">
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="I24" s="20">
+      <c r="I24">
         <v>15</v>
       </c>
-      <c r="J24" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="K24" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="L24" s="20">
+      <c r="J24" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" t="s">
+        <v>45</v>
+      </c>
+      <c r="L24">
         <v>0.98570000000000002</v>
       </c>
-      <c r="M24" s="20">
+      <c r="M24">
         <v>0.9758</v>
       </c>
-      <c r="N24" s="21"/>
+      <c r="N24" s="1"/>
       <c r="O24" s="9">
         <v>2.0370370370370369E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="16">
+    <row r="25" spans="1:15">
+      <c r="A25" s="8">
         <v>3</v>
       </c>
-      <c r="B25" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20">
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25">
         <v>32</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25">
         <v>320</v>
       </c>
-      <c r="G25" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="20">
+      <c r="G25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="I25" s="20">
+      <c r="I25">
         <v>15</v>
       </c>
-      <c r="J25" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="K25" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L25" s="20">
+      <c r="J25" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25">
         <v>0.97860000000000003</v>
       </c>
-      <c r="M25" s="20">
+      <c r="M25">
         <v>0.9839</v>
       </c>
-      <c r="N25" s="21"/>
+      <c r="N25" s="1"/>
       <c r="O25" s="9">
         <v>2.0717592592592593E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="16">
+    <row r="26" spans="1:15">
+      <c r="A26" s="8">
         <v>3</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" s="20">
+      <c r="E26">
         <v>32</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26">
         <v>320</v>
       </c>
-      <c r="G26" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="20">
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26">
         <v>1E-4</v>
       </c>
-      <c r="I26" s="20">
+      <c r="I26">
         <v>15</v>
       </c>
-      <c r="J26" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="K26" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="L26" s="20">
+      <c r="J26" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26" t="s">
+        <v>45</v>
+      </c>
+      <c r="L26">
         <v>0.97140000000000004</v>
       </c>
-      <c r="M26" s="20">
+      <c r="M26">
         <v>0.9839</v>
       </c>
-      <c r="N26" s="21"/>
+      <c r="N26" s="1"/>
       <c r="O26" s="9">
         <v>2.0717592592592593E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="16">
+    <row r="27" spans="1:15">
+      <c r="A27" s="8">
         <v>3</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="20">
+      <c r="E27">
         <v>32</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27">
         <v>320</v>
       </c>
-      <c r="G27" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="20">
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27">
         <v>1E-4</v>
       </c>
-      <c r="I27" s="20">
+      <c r="I27">
         <v>15</v>
       </c>
-      <c r="J27" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="K27" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L27" s="20">
+      <c r="J27" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27">
         <v>0.9536</v>
       </c>
-      <c r="M27" s="20">
+      <c r="M27">
         <v>0.9839</v>
       </c>
-      <c r="N27" s="21"/>
+      <c r="N27" s="1"/>
       <c r="O27" s="9">
         <v>2.0601851851851853E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="16">
+    <row r="28" spans="1:15">
+      <c r="A28" s="8">
         <v>3</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" s="20">
+      <c r="E28">
         <v>32</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28">
         <v>320</v>
       </c>
-      <c r="G28" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="20">
+      <c r="G28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28">
         <v>1E-4</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28">
         <v>15</v>
       </c>
-      <c r="J28" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="K28" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="L28" s="20">
+      <c r="J28" t="s">
+        <v>40</v>
+      </c>
+      <c r="K28" t="s">
+        <v>45</v>
+      </c>
+      <c r="L28">
         <v>0.96430000000000005</v>
       </c>
-      <c r="M28" s="20">
+      <c r="M28">
         <v>0.9758</v>
       </c>
-      <c r="N28" s="21"/>
+      <c r="N28" s="1"/>
       <c r="O28" s="9">
         <v>2.0486111111111113E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="22">
+    <row r="29" spans="1:15">
+      <c r="A29" s="10">
         <v>3</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>87</v>
       </c>
       <c r="E29" s="11">
         <v>32</v>
@@ -2806,7 +2830,7 @@
         <v>320</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H29" s="11">
         <v>1E-4</v>
@@ -2815,10 +2839,10 @@
         <v>15</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L29" s="11">
         <v>0.97499999999999998</v>
@@ -2827,21 +2851,21 @@
         <v>0.9879</v>
       </c>
       <c r="N29" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O29" s="12">
         <v>2.0949074074074073E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="18">
+    <row r="30" spans="1:15">
+      <c r="A30" s="5">
         <v>4</v>
       </c>
-      <c r="B30" s="19" t="s">
-        <v>93</v>
+      <c r="B30" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6">
@@ -2851,17 +2875,17 @@
         <v>320</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H30" s="6">
         <v>1E-3</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L30" s="6">
         <v>0.97860000000000003</v>
@@ -2873,62 +2897,57 @@
       <c r="O30" s="7">
         <v>2.9282407407407408E-3</v>
       </c>
-      <c r="Q30" t="s">
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="8">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31">
+        <v>32</v>
+      </c>
+      <c r="F31">
+        <v>320</v>
+      </c>
+      <c r="G31" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="16">
-        <v>4</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20">
-        <v>32</v>
-      </c>
-      <c r="F31" s="20">
-        <v>320</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="H31" s="20">
+      <c r="H31">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="K31" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L31" s="20">
+      <c r="J31" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" t="s">
+        <v>44</v>
+      </c>
+      <c r="L31">
         <v>0.98570000000000002</v>
       </c>
-      <c r="M31" s="20">
+      <c r="M31">
         <v>0.9919</v>
       </c>
-      <c r="N31" s="21" t="s">
-        <v>21</v>
+      <c r="N31" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="O31" s="9">
         <v>2.8587962962962963E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="22">
+    <row r="32" spans="1:15">
+      <c r="A32" s="10">
         <v>4</v>
       </c>
-      <c r="B32" s="23" t="s">
-        <v>95</v>
+      <c r="B32" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
@@ -2938,17 +2957,17 @@
         <v>320</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H32" s="11">
         <v>1E-4</v>
       </c>
       <c r="I32" s="11"/>
       <c r="J32" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L32" s="11">
         <v>0.98209999999999997</v>
@@ -2957,24 +2976,24 @@
         <v>0.9919</v>
       </c>
       <c r="N32" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O32" s="12">
         <v>2.8472222222222223E-3</v>
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="18">
+      <c r="A33" s="5">
         <v>5</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E33" s="6">
         <v>32</v>
@@ -2983,17 +3002,17 @@
         <v>320</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H33" s="6">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L33" s="6">
         <v>0.98570000000000002</v>
@@ -3007,17 +3026,17 @@
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="22">
+      <c r="A34" s="10">
         <v>5</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E34" s="11">
         <v>32</v>
@@ -3026,17 +3045,17 @@
         <v>320</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H34" s="11">
         <v>1E-4</v>
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L34" s="11">
         <v>0.97860000000000003</v>
@@ -3067,6 +3086,34 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{2345762D-6FAD-CB42-93A0-EDADA8F7B40F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18:L29">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5F1DA120-6D45-2543-AB67-4785E5DF6599}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L30:L32">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{081F291F-F257-4C48-A0A7-B0CE33201C9B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3099,20 +3146,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L18:L29">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5F1DA120-6D45-2543-AB67-4785E5DF6599}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="M18:M29">
     <cfRule type="dataBar" priority="3">
       <dataBar>
@@ -3123,20 +3156,6 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{90244F26-22BF-7641-8696-6F27CCDE58B8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L30:L32">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFD6007B"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{081F291F-F257-4C48-A0A7-B0CE33201C9B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3173,6 +3192,32 @@
           <xm:sqref>L9:L17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5F1DA120-6D45-2543-AB67-4785E5DF6599}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L18:L29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{081F291F-F257-4C48-A0A7-B0CE33201C9B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFD6007B"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L30:L32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B4E2735B-619C-5646-A44C-6F4701BBBE11}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -3199,19 +3244,6 @@
           <xm:sqref>M9:M17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5F1DA120-6D45-2543-AB67-4785E5DF6599}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFF555A"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>L18:L29</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{90244F26-22BF-7641-8696-6F27CCDE58B8}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -3223,19 +3255,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>M18:M29</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{081F291F-F257-4C48-A0A7-B0CE33201C9B}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFD6007B"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>L30:L32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AF2AA92A-FAA9-1C41-823C-B1759A773B55}">
